--- a/Recording Datasets.xlsx
+++ b/Recording Datasets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zachz/Documents/timescales_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8538BCB-8165-CF40-8CB7-8FCD9FB3CC81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838D62DB-A53D-1748-BBE3-507F6E336C6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{B77514B4-E1C3-9F47-A43A-EAEB92DD29D6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Brain Area</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>FROOT OFC</t>
+  </si>
+  <si>
+    <t>Buzsaki</t>
+  </si>
+  <si>
+    <t>Wirth</t>
   </si>
 </sst>
 </file>
@@ -495,7 +501,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -530,8 +536,8 @@
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>16</v>
@@ -550,8 +556,8 @@
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
